--- a/most common verbs with examples.xlsx
+++ b/most common verbs with examples.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="3435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>3 singular</t>
   </si>
@@ -103,6 +99,12 @@
   <si>
     <t xml:space="preserve">All childrens did homework already.
 </t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
   </si>
 </sst>
 </file>
@@ -455,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +538,14 @@
       </c>
       <c r="E4" s="5"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/most common verbs with examples.xlsx
+++ b/most common verbs with examples.xlsx
@@ -101,10 +101,10 @@
 </t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
+    <t>df</t>
+  </si>
+  <si>
+    <t>gf</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
